--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>material</t>
   </si>
   <si>
-    <t/>
+    <t>optimizerName</t>
   </si>
   <si>
     <t>DP1000</t>
+  </si>
+  <si>
+    <t>BO</t>
   </si>
 </sst>
 </file>
@@ -72,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -80,19 +83,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -107,7 +101,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -418,37 +412,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="36.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="36.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -463,352 +453,350 @@
       <c r="P1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>optimizeStrategy</t>
+  </si>
   <si>
     <t>material</t>
   </si>
@@ -22,10 +25,49 @@
     <t>optimizerName</t>
   </si>
   <si>
-    <t>DP1000</t>
+    <t>hardeningLaw</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>deviationPercent</t>
+  </si>
+  <si>
+    <t>SOO</t>
+  </si>
+  <si>
+    <t>DP1000_room</t>
   </si>
   <si>
     <t>BO</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MOO</t>
+  </si>
+  <si>
+    <t>DP1000_400C</t>
+  </si>
+  <si>
+    <t>SwiftVoce</t>
+  </si>
+  <si>
+    <t>NDBR6</t>
+  </si>
+  <si>
+    <t>CHR6</t>
   </si>
 </sst>
 </file>
@@ -75,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -83,15 +125,24 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -103,6 +154,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,22 +466,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="36.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -437,11 +491,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -453,350 +515,376 @@
       <c r="P1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>optimizeStrategy</t>
   </si>
   <si>
+    <t>runInitialSims</t>
+  </si>
+  <si>
+    <t>numberOfInitialSims</t>
+  </si>
+  <si>
+    <t>initialSimsSpacing</t>
+  </si>
+  <si>
     <t>material</t>
   </si>
   <si>
@@ -37,6 +46,9 @@
     <t>SOO</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>DP1000_room</t>
   </si>
   <si>
@@ -55,16 +67,19 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>DP1000_400C</t>
+  </si>
+  <si>
+    <t>SwiftVoce</t>
+  </si>
+  <si>
+    <t>NDBR6</t>
+  </si>
+  <si>
     <t>MOO</t>
   </si>
   <si>
-    <t>DP1000_400C</t>
-  </si>
-  <si>
-    <t>SwiftVoce</t>
-  </si>
-  <si>
-    <t>NDBR6</t>
+    <t>no</t>
   </si>
   <si>
     <t>CHR6</t>
@@ -460,7 +475,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -468,13 +483,13 @@
   <cols>
     <col min="1" max="1" style="11" width="33.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="23.862142857142857" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -482,6 +497,7 @@
     <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -497,15 +513,21 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -513,29 +535,36 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -543,21 +572,22 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -565,27 +595,30 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -593,21 +626,26 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -615,17 +653,18 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -633,17 +672,18 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -651,17 +691,18 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -669,17 +710,18 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -687,17 +729,18 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -705,17 +748,18 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -723,17 +767,18 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -741,17 +786,18 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -759,17 +805,18 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -777,17 +824,18 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -795,17 +843,18 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -813,17 +862,18 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -831,17 +881,18 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -849,17 +900,18 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -867,17 +919,18 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -885,6 +938,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>optimizeStrategy</t>
   </si>
   <si>
-    <t>runInitialSims</t>
-  </si>
-  <si>
     <t>numberOfInitialSims</t>
   </si>
   <si>
@@ -31,36 +28,36 @@
     <t>material</t>
   </si>
   <si>
+    <t>hardeningLaw</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>curveIndex</t>
+  </si>
+  <si>
+    <t>deviationPercent</t>
+  </si>
+  <si>
     <t>optimizerName</t>
   </si>
   <si>
-    <t>hardeningLaw</t>
-  </si>
-  <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>deviationPercent</t>
-  </si>
-  <si>
     <t>SOO</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>DP1000_room</t>
   </si>
   <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
     <t>BO</t>
   </si>
   <si>
-    <t>Swift</t>
-  </si>
-  <si>
-    <t>NDBR50</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -79,10 +76,16 @@
     <t>MOO</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>CHR6</t>
+  </si>
+  <si>
+    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
+  </si>
+  <si>
+    <t>NDBR50,NDBR6,CHR6</t>
+  </si>
+  <si>
+    <t>curveIndex larger than 1 are simulated target curves</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +104,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -132,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -149,7 +158,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -158,6 +167,9 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -167,11 +179,14 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,39 +490,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="56.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -535,20 +549,19 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -556,14 +569,14 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5">
-        <v>5</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -572,22 +585,23 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -595,29 +609,26 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -626,25 +637,22 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -653,16 +661,19 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
@@ -672,15 +683,14 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -691,17 +701,16 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -710,18 +719,17 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -729,18 +737,17 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -748,18 +755,17 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -767,18 +773,17 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -786,17 +791,16 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -805,17 +809,16 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -824,17 +827,16 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -843,17 +845,16 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -862,17 +863,16 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -881,17 +881,16 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -900,17 +899,16 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -919,18 +917,17 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -938,7 +935,6 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>optimizeStrategy</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>BO</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -93,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,12 +101,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -141,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,34 +149,22 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -496,25 +475,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="56.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +518,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2"/>
@@ -555,10 +534,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -570,12 +549,12 @@
         <v>12</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="4"/>
@@ -591,24 +570,20 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
@@ -617,50 +592,50 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4"/>
@@ -668,21 +643,21 @@
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4"/>
@@ -694,247 +669,247 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>optimizeStrategy</t>
   </si>
@@ -46,43 +46,46 @@
     <t>SOO</t>
   </si>
   <si>
+    <t>DP1000_400C</t>
+  </si>
+  <si>
+    <t>SwiftVoce</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>DP1000_room</t>
   </si>
   <si>
     <t>Swift</t>
   </si>
   <si>
-    <t>NDBR50</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>DP1000_400C</t>
-  </si>
-  <si>
-    <t>SwiftVoce</t>
+    <t>MOO</t>
   </si>
   <si>
     <t>NDBR6</t>
   </si>
   <si>
-    <t>MOO</t>
+    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
   </si>
   <si>
     <t>CHR6</t>
   </si>
   <si>
-    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
+    <t>curveIndex larger than 1 are simulated target curves</t>
   </si>
   <si>
     <t>NDBR50,NDBR6,CHR6</t>
-  </si>
-  <si>
-    <t>curveIndex larger than 1 are simulated target curves</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -147,6 +150,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -475,22 +481,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="61.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
@@ -534,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5">
         <v>1000</v>
@@ -569,21 +575,23 @@
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
@@ -592,26 +600,26 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
@@ -619,8 +627,12 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
@@ -629,19 +641,21 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
         <v>21</v>
@@ -651,13 +665,13 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4"/>
@@ -665,251 +679,253 @@
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>optimizeStrategy</t>
   </si>
@@ -37,7 +37,10 @@
     <t>curveIndex</t>
   </si>
   <si>
-    <t>deviationPercent</t>
+    <t>yielding_deviationPercent</t>
+  </si>
+  <si>
+    <t>hardening_deviationPercent</t>
   </si>
   <si>
     <t>optimizerName</t>
@@ -46,31 +49,31 @@
     <t>SOO</t>
   </si>
   <si>
+    <t>DP1000_room</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MOO</t>
+  </si>
+  <si>
     <t>DP1000_400C</t>
   </si>
   <si>
     <t>SwiftVoce</t>
-  </si>
-  <si>
-    <t>NDBR50</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>DP1000_room</t>
-  </si>
-  <si>
-    <t>Swift</t>
-  </si>
-  <si>
-    <t>MOO</t>
   </si>
   <si>
     <t>NDBR6</t>
@@ -481,16 +484,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="61.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="15.005" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -499,7 +502,7 @@
     <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,10 +527,12 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -537,7 +542,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>30</v>
@@ -546,24 +551,26 @@
         <v>1000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5">
         <v>2</v>
       </c>
       <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -576,14 +583,14 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -595,18 +602,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -623,21 +630,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -654,14 +661,14 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -680,7 +687,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>optimizeStrategy</t>
   </si>
@@ -37,10 +37,7 @@
     <t>curveIndex</t>
   </si>
   <si>
-    <t>yielding_deviationPercent</t>
-  </si>
-  <si>
-    <t>hardening_deviationPercent</t>
+    <t>deviationPercent</t>
   </si>
   <si>
     <t>optimizerName</t>
@@ -61,34 +58,31 @@
     <t>BO</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>DP1000_400C</t>
+  </si>
+  <si>
+    <t>SwiftVoce</t>
+  </si>
+  <si>
+    <t>NDBR6</t>
+  </si>
+  <si>
     <t>MOO</t>
   </si>
   <si>
-    <t>DP1000_400C</t>
-  </si>
-  <si>
-    <t>SwiftVoce</t>
-  </si>
-  <si>
-    <t>NDBR6</t>
+    <t>CHR6</t>
   </si>
   <si>
     <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
   </si>
   <si>
-    <t>CHR6</t>
+    <t>NDBR50,NDBR6,CHR6</t>
   </si>
   <si>
     <t>curveIndex larger than 1 are simulated target curves</t>
-  </si>
-  <si>
-    <t>NDBR50,NDBR6,CHR6</t>
   </si>
 </sst>
 </file>
@@ -138,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -153,9 +147,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -484,25 +475,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,12 +518,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -542,35 +531,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5">
         <v>1000</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="5">
         <v>2</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -582,103 +569,95 @@
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4"/>
@@ -686,253 +665,251 @@
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>optimizeStrategy</t>
   </si>
   <si>
+    <t>generateParams</t>
+  </si>
+  <si>
     <t>numberOfInitialSims</t>
   </si>
   <si>
@@ -46,10 +49,13 @@
     <t>SOO</t>
   </si>
   <si>
+    <t>manual</t>
+  </si>
+  <si>
     <t>DP1000_room</t>
   </si>
   <si>
-    <t>Swift</t>
+    <t>SwiftVoce</t>
   </si>
   <si>
     <t>NDBR50</t>
@@ -64,13 +70,13 @@
     <t>DP1000_400C</t>
   </si>
   <si>
-    <t>SwiftVoce</t>
-  </si>
-  <si>
     <t>NDBR6</t>
   </si>
   <si>
     <t>MOO</t>
+  </si>
+  <si>
+    <t>auto</t>
   </si>
   <si>
     <t>CHR6</t>
@@ -469,28 +475,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="61.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
@@ -503,7 +510,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -512,386 +519,413 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="8"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="8"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="8"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="8"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="6"/>
@@ -903,13 +937,14 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>optimizeStrategy</t>
   </si>
@@ -55,19 +55,22 @@
     <t>DP1000_room</t>
   </si>
   <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DP1000_400C</t>
+  </si>
+  <si>
     <t>SwiftVoce</t>
-  </si>
-  <si>
-    <t>NDBR50</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>DP1000_400C</t>
   </si>
   <si>
     <t>NDBR6</t>
@@ -167,10 +170,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -482,15 +485,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="61.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -504,7 +507,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -543,7 +546,7 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5">
@@ -603,7 +606,7 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5"/>
@@ -612,10 +615,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
@@ -632,20 +635,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -665,10 +668,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>optimizeStrategy</t>
   </si>
@@ -55,7 +55,7 @@
     <t>DP1000_room</t>
   </si>
   <si>
-    <t>Swift</t>
+    <t>SwiftVoce</t>
   </si>
   <si>
     <t>NDBR50</t>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>DP1000_400C</t>
-  </si>
-  <si>
-    <t>SwiftVoce</t>
   </si>
   <si>
     <t>NDBR6</t>
@@ -615,10 +612,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
@@ -635,20 +632,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -668,10 +665,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>15</v>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>optimizeStrategy</t>
   </si>
@@ -55,19 +55,22 @@
     <t>DP1000_room</t>
   </si>
   <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DP1000_400C</t>
+  </si>
+  <si>
     <t>SwiftVoce</t>
-  </si>
-  <si>
-    <t>NDBR50</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>DP1000_400C</t>
   </si>
   <si>
     <t>NDBR6</t>
@@ -612,10 +615,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
@@ -632,20 +635,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -665,10 +668,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+  <si>
+    <t>SLURM_iteration</t>
+  </si>
   <si>
     <t>optimizeStrategy</t>
   </si>
@@ -46,6 +49,9 @@
     <t>optimizerName</t>
   </si>
   <si>
+    <t>one_node_small</t>
+  </si>
+  <si>
     <t>SOO</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>one_node_test</t>
+  </si>
+  <si>
     <t>DP1000_400C</t>
   </si>
   <si>
@@ -91,10 +100,22 @@
     <t>curveIndex larger than 1 are simulated target curves</t>
   </si>
   <si>
+    <t>two_nodes_small</t>
+  </si>
+  <si>
     <t>NDBR50,NDBR6,CHR6</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>one_node_test if you dont want to queue. However, time limit is 15 minutes so simulations will sometimes fail due to timeout</t>
+  </si>
+  <si>
+    <t>one_node_small if you dont want to ever run into timeout problem. However, queuing time is unpredictable</t>
+  </si>
+  <si>
+    <t>two_nodes_small if you run a much larger geometry and one node is not enough to run fast. Two nodes will utilize MPI</t>
   </si>
 </sst>
 </file>
@@ -144,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -165,6 +186,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -484,29 +508,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="61.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="96.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
@@ -516,13 +541,13 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -531,431 +556,469 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
         <v>100</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>10000</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="6"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>SLURM_iteration</t>
   </si>
@@ -61,39 +61,39 @@
     <t>DP1000_room</t>
   </si>
   <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>one_node_test</t>
+  </si>
+  <si>
+    <t>DP1000_400C</t>
+  </si>
+  <si>
+    <t>NDBR6</t>
+  </si>
+  <si>
+    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
+  </si>
+  <si>
+    <t>MOO</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
     <t>SwiftVoce</t>
   </si>
   <si>
-    <t>NDBR50</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>one_node_test</t>
-  </si>
-  <si>
-    <t>DP1000_400C</t>
-  </si>
-  <si>
-    <t>Swift</t>
-  </si>
-  <si>
-    <t>NDBR6</t>
-  </si>
-  <si>
-    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
-  </si>
-  <si>
-    <t>MOO</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
     <t>CHR6</t>
   </si>
   <si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>NDBR50,NDBR6,CHR6</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>one_node_test if you dont want to queue. However, time limit is 15 minutes so simulations will sometimes fail due to timeout</t>
@@ -165,30 +162,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -514,511 +508,507 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="96.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="61.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>100</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>10000</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="7">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="7">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>SLURM_iteration</t>
   </si>
@@ -52,13 +52,34 @@
     <t>one_node_small</t>
   </si>
   <si>
+    <t>MOO</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>DP1000_400C</t>
+  </si>
+  <si>
+    <t>SwiftVoce</t>
+  </si>
+  <si>
+    <t>NDBR50,NDBR6,CHD6</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>one_node_test</t>
+  </si>
+  <si>
     <t>SOO</t>
   </si>
   <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t>DP1000_room</t>
+    <t>DP1000_25C</t>
   </si>
   <si>
     <t>Swift</t>
@@ -67,43 +88,22 @@
     <t>NDBR50</t>
   </si>
   <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>one_node_test</t>
-  </si>
-  <si>
-    <t>DP1000_400C</t>
+    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
+  </si>
+  <si>
+    <t>auto</t>
   </si>
   <si>
     <t>NDBR6</t>
   </si>
   <si>
-    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
-  </si>
-  <si>
-    <t>MOO</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>SwiftVoce</t>
-  </si>
-  <si>
-    <t>CHR6</t>
-  </si>
-  <si>
     <t>curveIndex larger than 1 are simulated target curves</t>
   </si>
   <si>
     <t>two_nodes_small</t>
   </si>
   <si>
-    <t>NDBR50,NDBR6,CHR6</t>
+    <t>CHD6</t>
   </si>
   <si>
     <t>one_node_test if you dont want to queue. However, time limit is 15 minutes so simulations will sometimes fail due to timeout</t>
@@ -167,8 +167,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -508,17 +508,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="61.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="15.005" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="7">
         <v>2</v>
@@ -639,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>13</v>
@@ -647,16 +647,16 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -673,16 +673,18 @@
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>26</v>
@@ -732,7 +734,9 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -581,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2" s="7">
         <v>10000</v>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>SLURM_iteration</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>curveIndex larger than 1 are simulated target curves</t>
+  </si>
+  <si>
+    <t>BOTORCH</t>
   </si>
   <si>
     <t>two_nodes_small</t>
@@ -659,7 +662,9 @@
         <v>24</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -693,7 +698,9 @@
         <v>27</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -704,7 +711,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -713,7 +720,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
       <c r="H6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -750,7 +757,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
@@ -772,7 +779,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
@@ -794,7 +801,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>SLURM_iteration</t>
   </si>
@@ -49,6 +49,9 @@
     <t>optimizerName</t>
   </si>
   <si>
+    <t>yieldingIndex</t>
+  </si>
+  <si>
     <t>one_node_small</t>
   </si>
   <si>
@@ -67,30 +70,36 @@
     <t>NDBR50,NDBR6,CHD6</t>
   </si>
   <si>
+    <t>BOTORCH</t>
+  </si>
+  <si>
+    <t>200.200.1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>one_node_test</t>
+  </si>
+  <si>
+    <t>SOO</t>
+  </si>
+  <si>
+    <t>DP1000_25C</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
+    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
+  </si>
+  <si>
     <t>BO</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>one_node_test</t>
-  </si>
-  <si>
-    <t>SOO</t>
-  </si>
-  <si>
-    <t>DP1000_25C</t>
-  </si>
-  <si>
-    <t>Swift</t>
-  </si>
-  <si>
-    <t>NDBR50</t>
-  </si>
-  <si>
-    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
-  </si>
-  <si>
     <t>auto</t>
   </si>
   <si>
@@ -98,9 +107,6 @@
   </si>
   <si>
     <t>curveIndex larger than 1 are simulated target curves</t>
-  </si>
-  <si>
-    <t>BOTORCH</t>
   </si>
   <si>
     <t>two_nodes_small</t>
@@ -522,7 +528,7 @@
     <col min="9" max="9" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="11" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -531,7 +537,7 @@
     <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -565,7 +571,9 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -575,13 +583,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7">
         <v>200</v>
@@ -590,13 +598,13 @@
         <v>10000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -605,9 +613,11 @@
         <v>2</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -627,9 +637,9 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -639,33 +649,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="5"/>
+      <c r="K4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7">
+        <v>200</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -675,33 +687,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="5"/>
+      <c r="K5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7">
+        <v>200</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -711,7 +725,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -720,12 +734,14 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
       <c r="H6" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="7">
+        <v>1200</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -742,12 +758,14 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -757,7 +775,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
@@ -779,7 +797,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
@@ -801,7 +819,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.org.aalto.fi\zopev1\data\Desktop\Abaqus-Macromechanics-Project\configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF632A9-FC0E-4CE9-A3D3-25728C1A2A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="optimize_config"/>
+    <sheet name="optimize_config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>SLURM_iteration</t>
   </si>
@@ -127,8 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,52 +177,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -228,10 +232,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -269,71 +273,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -361,7 +365,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -384,11 +388,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -397,13 +401,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,7 +417,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -422,7 +426,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -431,7 +435,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -439,10 +443,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -507,37 +511,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,18 +582,18 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E2" s="7">
         <v>10000</v>
@@ -604,7 +605,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -615,8 +616,8 @@
       <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>19</v>
+      <c r="L2" s="6">
+        <v>200</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -625,7 +626,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -647,7 +648,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -685,7 +686,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -723,7 +724,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -749,7 +750,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -773,7 +774,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -795,7 +796,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -817,7 +818,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -839,7 +840,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -859,7 +860,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -879,7 +880,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
@@ -899,7 +900,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -919,7 +920,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
@@ -939,7 +940,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
@@ -959,7 +960,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -979,7 +980,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
@@ -999,7 +1000,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1019,7 +1020,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
